--- a/www/ig/nos/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/www/ig/nos/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.14</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.14</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/nos/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/www/ig/nos/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-04-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -199,12 +205,18 @@
     <t>Autorisation préfectorale de Guyane art L4131-5</t>
   </si>
   <si>
+    <t>Autorisation d'exercice des médecins telle que prévue à l'article L4131-5 du Code de la Santé Publique en vigueur du 28/01/2005 au 26/07/2020.</t>
+  </si>
+  <si>
     <t>AM07</t>
   </si>
   <si>
     <t>Autorisation préfectorale de Saint-Pierre-et-Miquelon art L4131-5</t>
   </si>
   <si>
+    <t>Autorisation d'exercice des médecins telle que prévue à l'article L4131-5 du Code de la Santé Publique en vigueur du 22/06/2000 au 26/07/2020.</t>
+  </si>
+  <si>
     <t>AM08</t>
   </si>
   <si>
@@ -277,24 +289,36 @@
     <t>Autorisation Dir régionale jeunesse, sports et cohésion sociale (DR-D-JSCS)</t>
   </si>
   <si>
+    <t>Suite au Décret n°2020-1545 du 9 décembre 2020, les DR-D-JSCS n'existent plus depuis le 1er avril 2021. Les missions de certification des professions sociales et de santé non médicales sont reprises par les DREETS.</t>
+  </si>
+  <si>
     <t>AM20</t>
   </si>
   <si>
     <t>Autorisation Dir régionale économie, emploi, travail et solidarités (DREETS)</t>
   </si>
   <si>
+    <t>Depuis le 1er avril 2021, les DREETS sont en charge de la certification dans le domaine des professions sociales et des professions de santé non médicales. Ces directions ont en effet repris certaines missions des anciennes DR-D-JSCS, suite au Décret n°2020-1545 du 9 décembre 2020.</t>
+  </si>
+  <si>
     <t>AM21</t>
   </si>
   <si>
     <t>Autorisation DGARS GP, GF, MQ ou préfet SPM (art. L4131-5 et L4221-14-3)</t>
   </si>
   <si>
+    <t>Autorisation d'exercice des médecins, sages-femmes et chirurgiens-dentistes telle que prévue aux articles L4131-5 du Code de la Santé Publique en vigueur depuis le 26/07/2020 et des pharmaciens telle que prévue à l'article L4221-14-3 en vigueur depuis le 27/07/2019.</t>
+  </si>
+  <si>
     <t>AM22</t>
   </si>
   <si>
     <t>Agrément Caisse Régionale d'Assurance Maladie</t>
   </si>
   <si>
+    <t>Articles D4364-8 et D4364-9 du code de la santé publique (CSP) ; Arrêté du 1er février 2011 relatif aux professions de prothésiste et orthésiste</t>
+  </si>
+  <si>
     <t>AM23</t>
   </si>
   <si>
@@ -307,6 +331,9 @@
     <t>Exerce comme tech lab avant le 08/11/1976</t>
   </si>
   <si>
+    <t>Article L4352-3-1 du code de la santé publique (CSP)</t>
+  </si>
+  <si>
     <t>AM25</t>
   </si>
   <si>
@@ -319,6 +346,9 @@
     <t>Exerce comme tech lab au 30/05/2013</t>
   </si>
   <si>
+    <t>Article L4352-3-2 du code de la santé publique (CSP)</t>
+  </si>
+  <si>
     <t>AM27</t>
   </si>
   <si>
@@ -331,54 +361,81 @@
     <t>Autorisation d'user du titre d'Ostéopathe</t>
   </si>
   <si>
+    <t>Article 16 du décret n° 2007-435 du 25 mars 2007 relatif aux actes et aux conditions d'exercice de l'ostéopathie Autorisation délivrée par l'autorité compétente pour user du titre dans le cadre de mesures transitoires mises en place lorsque la profession a été encadrée en 2007 afin d'intégrer les professionnels qui exerçaient avant cette date</t>
+  </si>
+  <si>
     <t>AM29</t>
   </si>
   <si>
     <t>Autorisation titre diététicien décision admin 86</t>
   </si>
   <si>
+    <t>Article L4371-6 2° du code de la santé publique (CSP)</t>
+  </si>
+  <si>
     <t>AM30</t>
   </si>
   <si>
     <t>Autorisation titre diététicien emploi permanent 86</t>
   </si>
   <si>
+    <t>Article L4371-6 1° du code de la santé publique (CSP)</t>
+  </si>
+  <si>
     <t>AM31</t>
   </si>
   <si>
     <t>Autorisation d'exercice de psychologue diplôme étranger</t>
   </si>
   <si>
+    <t>Art.1er, 5° du décret n°90-255 du 22 mars 1990 ; Décret n°2003-1073 du 14 novembre 2003</t>
+  </si>
+  <si>
     <t>AM32</t>
   </si>
   <si>
     <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
   </si>
   <si>
+    <t>Décret n°90-259 du 22 mars 1990</t>
+  </si>
+  <si>
     <t>AM33</t>
   </si>
   <si>
     <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
   </si>
   <si>
+    <t>Article 52 de la loi n° 2004-806 du 9 août 2004 relative à la politique de santé publique ; article 1 du décret n° 2010-534 du 20 mai 2010 relatif à l'usage du titre de psychothérapeute</t>
+  </si>
+  <si>
     <t>AM34</t>
   </si>
   <si>
     <t>Autorisation d'exercice d'audioprothésiste médecin</t>
   </si>
   <si>
+    <t>Article L4361-3 du code de la santé publique (CSP)</t>
+  </si>
+  <si>
     <t>AM35</t>
   </si>
   <si>
     <t>Autorisation d'user du titre de Chiropraxie</t>
   </si>
   <si>
+    <t>Article 23 du décret n° 2011-32 du 7 janvier 2011 relatif aux actes et aux conditions d'exercice de la chiropraxie</t>
+  </si>
+  <si>
     <t>AM36</t>
   </si>
   <si>
     <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
   </si>
   <si>
+    <t>Article 6 de l'arrêté du 1er février 2011 relatif aux professions de prothésiste et orthésiste</t>
+  </si>
+  <si>
     <t>AM37</t>
   </si>
   <si>
@@ -391,10 +448,34 @@
     <t>Arrêté de nomination de MER du Secteur Public</t>
   </si>
   <si>
+    <t>Article L4351-6 1° du code de la santé publique (CSP)</t>
+  </si>
+  <si>
     <t>AM39</t>
   </si>
   <si>
     <t>Autorisation d'exercice psychothérapeute médecin</t>
+  </si>
+  <si>
+    <t>Article 52 de la loi n° 2004-806 du 9 août 2004 relative à la politique de santé publique ; article 1 du décret n° 2010-534 du 20 mai 2010 relatif à l'usage du titre de psychothérapeute.</t>
+  </si>
+  <si>
+    <t>AM40</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice temporaire Nouvelle-Calédonie (loi du pays n°2023-8)</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice dérogatoire temporaire pour certains professionnels de santé, mise en place par la Loi du pays n° 2023-8 du 11 août 2023</t>
+  </si>
+  <si>
+    <t>AM41</t>
+  </si>
+  <si>
+    <t>Agrément de radiophysicien avant le 28/11/2004</t>
+  </si>
+  <si>
+    <t>Agrément de radiophysicien associé au DEA de physique radiologique et médicale délivré par l'Université Paul Sabatier (jusqu'en 1995)</t>
   </si>
   <si>
     <t>AMGP</t>
@@ -534,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -640,63 +721,71 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -713,52 +802,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +857,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -776,509 +865,581 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>66</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>94</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>97</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>105</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>105</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>110</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>115</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>118</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>121</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>124</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>127</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>130</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>133</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>136</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>139</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>139</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>144</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>147</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D44" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/ig/nos/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/www/ig/nos/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,13 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t/>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -205,18 +199,12 @@
     <t>Autorisation préfectorale de Guyane art L4131-5</t>
   </si>
   <si>
-    <t>Autorisation d'exercice des médecins telle que prévue à l'article L4131-5 du Code de la Santé Publique en vigueur du 28/01/2005 au 26/07/2020.</t>
-  </si>
-  <si>
     <t>AM07</t>
   </si>
   <si>
     <t>Autorisation préfectorale de Saint-Pierre-et-Miquelon art L4131-5</t>
   </si>
   <si>
-    <t>Autorisation d'exercice des médecins telle que prévue à l'article L4131-5 du Code de la Santé Publique en vigueur du 22/06/2000 au 26/07/2020.</t>
-  </si>
-  <si>
     <t>AM08</t>
   </si>
   <si>
@@ -289,36 +277,24 @@
     <t>Autorisation Dir régionale jeunesse, sports et cohésion sociale (DR-D-JSCS)</t>
   </si>
   <si>
-    <t>Suite au Décret n°2020-1545 du 9 décembre 2020, les DR-D-JSCS n'existent plus depuis le 1er avril 2021. Les missions de certification des professions sociales et de santé non médicales sont reprises par les DREETS.</t>
-  </si>
-  <si>
     <t>AM20</t>
   </si>
   <si>
     <t>Autorisation Dir régionale économie, emploi, travail et solidarités (DREETS)</t>
   </si>
   <si>
-    <t>Depuis le 1er avril 2021, les DREETS sont en charge de la certification dans le domaine des professions sociales et des professions de santé non médicales. Ces directions ont en effet repris certaines missions des anciennes DR-D-JSCS, suite au Décret n°2020-1545 du 9 décembre 2020.</t>
-  </si>
-  <si>
     <t>AM21</t>
   </si>
   <si>
     <t>Autorisation DGARS GP, GF, MQ ou préfet SPM (art. L4131-5 et L4221-14-3)</t>
   </si>
   <si>
-    <t>Autorisation d'exercice des médecins, sages-femmes et chirurgiens-dentistes telle que prévue aux articles L4131-5 du Code de la Santé Publique en vigueur depuis le 26/07/2020 et des pharmaciens telle que prévue à l'article L4221-14-3 en vigueur depuis le 27/07/2019.</t>
-  </si>
-  <si>
     <t>AM22</t>
   </si>
   <si>
     <t>Agrément Caisse Régionale d'Assurance Maladie</t>
   </si>
   <si>
-    <t>Articles D4364-8 et D4364-9 du code de la santé publique (CSP) ; Arrêté du 1er février 2011 relatif aux professions de prothésiste et orthésiste</t>
-  </si>
-  <si>
     <t>AM23</t>
   </si>
   <si>
@@ -331,9 +307,6 @@
     <t>Exerce comme tech lab avant le 08/11/1976</t>
   </si>
   <si>
-    <t>Article L4352-3-1 du code de la santé publique (CSP)</t>
-  </si>
-  <si>
     <t>AM25</t>
   </si>
   <si>
@@ -346,9 +319,6 @@
     <t>Exerce comme tech lab au 30/05/2013</t>
   </si>
   <si>
-    <t>Article L4352-3-2 du code de la santé publique (CSP)</t>
-  </si>
-  <si>
     <t>AM27</t>
   </si>
   <si>
@@ -361,81 +331,54 @@
     <t>Autorisation d'user du titre d'Ostéopathe</t>
   </si>
   <si>
-    <t>Article 16 du décret n° 2007-435 du 25 mars 2007 relatif aux actes et aux conditions d'exercice de l'ostéopathie Autorisation délivrée par l'autorité compétente pour user du titre dans le cadre de mesures transitoires mises en place lorsque la profession a été encadrée en 2007 afin d'intégrer les professionnels qui exerçaient avant cette date</t>
-  </si>
-  <si>
     <t>AM29</t>
   </si>
   <si>
     <t>Autorisation titre diététicien décision admin 86</t>
   </si>
   <si>
-    <t>Article L4371-6 2° du code de la santé publique (CSP)</t>
-  </si>
-  <si>
     <t>AM30</t>
   </si>
   <si>
     <t>Autorisation titre diététicien emploi permanent 86</t>
   </si>
   <si>
-    <t>Article L4371-6 1° du code de la santé publique (CSP)</t>
-  </si>
-  <si>
     <t>AM31</t>
   </si>
   <si>
     <t>Autorisation d'exercice de psychologue diplôme étranger</t>
   </si>
   <si>
-    <t>Art.1er, 5° du décret n°90-255 du 22 mars 1990 ; Décret n°2003-1073 du 14 novembre 2003</t>
-  </si>
-  <si>
     <t>AM32</t>
   </si>
   <si>
     <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
   </si>
   <si>
-    <t>Décret n°90-259 du 22 mars 1990</t>
-  </si>
-  <si>
     <t>AM33</t>
   </si>
   <si>
     <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
   </si>
   <si>
-    <t>Article 52 de la loi n° 2004-806 du 9 août 2004 relative à la politique de santé publique ; article 1 du décret n° 2010-534 du 20 mai 2010 relatif à l'usage du titre de psychothérapeute</t>
-  </si>
-  <si>
     <t>AM34</t>
   </si>
   <si>
     <t>Autorisation d'exercice d'audioprothésiste médecin</t>
   </si>
   <si>
-    <t>Article L4361-3 du code de la santé publique (CSP)</t>
-  </si>
-  <si>
     <t>AM35</t>
   </si>
   <si>
     <t>Autorisation d'user du titre de Chiropraxie</t>
   </si>
   <si>
-    <t>Article 23 du décret n° 2011-32 du 7 janvier 2011 relatif aux actes et aux conditions d'exercice de la chiropraxie</t>
-  </si>
-  <si>
     <t>AM36</t>
   </si>
   <si>
     <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
   </si>
   <si>
-    <t>Article 6 de l'arrêté du 1er février 2011 relatif aux professions de prothésiste et orthésiste</t>
-  </si>
-  <si>
     <t>AM37</t>
   </si>
   <si>
@@ -448,34 +391,10 @@
     <t>Arrêté de nomination de MER du Secteur Public</t>
   </si>
   <si>
-    <t>Article L4351-6 1° du code de la santé publique (CSP)</t>
-  </si>
-  <si>
     <t>AM39</t>
   </si>
   <si>
     <t>Autorisation d'exercice psychothérapeute médecin</t>
-  </si>
-  <si>
-    <t>Article 52 de la loi n° 2004-806 du 9 août 2004 relative à la politique de santé publique ; article 1 du décret n° 2010-534 du 20 mai 2010 relatif à l'usage du titre de psychothérapeute.</t>
-  </si>
-  <si>
-    <t>AM40</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice temporaire Nouvelle-Calédonie (loi du pays n°2023-8)</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice dérogatoire temporaire pour certains professionnels de santé, mise en place par la Loi du pays n° 2023-8 du 11 août 2023</t>
-  </si>
-  <si>
-    <t>AM41</t>
-  </si>
-  <si>
-    <t>Agrément de radiophysicien avant le 28/11/2004</t>
-  </si>
-  <si>
-    <t>Agrément de radiophysicien associé au DEA de physique radiologique et médicale délivré par l'Université Paul Sabatier (jusqu'en 1995)</t>
   </si>
   <si>
     <t>AMGP</t>
@@ -615,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -721,71 +640,63 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>32</v>
-      </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -802,52 +713,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>35</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +768,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -865,581 +776,509 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>45</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="D42" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/ig/nos/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/www/ig/nos/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -615,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -721,71 +715,63 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>32</v>
-      </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -802,52 +788,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>35</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -865,579 +851,579 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>45</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D35" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>130</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D37" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>136</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D38" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="D40" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>144</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D41" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D42" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D43" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D44" s="2"/>
     </row>

--- a/www/ig/nos/CodeSystem-TRE-R17-TypeAutorisation.xlsx
+++ b/www/ig/nos/CodeSystem-TRE-R17-TypeAutorisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -397,7 +397,7 @@
     <t>AM33</t>
   </si>
   <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
+    <t>Docteur en médecine spécialité psychiatrie</t>
   </si>
   <si>
     <t>Article 52 de la loi n° 2004-806 du 9 août 2004 relative à la politique de santé publique ; article 1 du décret n° 2010-534 du 20 mai 2010 relatif à l'usage du titre de psychothérapeute</t>
@@ -448,7 +448,7 @@
     <t>AM39</t>
   </si>
   <si>
-    <t>Autorisation d'exercice psychothérapeute médecin</t>
+    <t>Docteur en médecine + formation + stage</t>
   </si>
   <si>
     <t>Article 52 de la loi n° 2004-806 du 9 août 2004 relative à la politique de santé publique ; article 1 du décret n° 2010-534 du 20 mai 2010 relatif à l'usage du titre de psychothérapeute.</t>
@@ -470,6 +470,15 @@
   </si>
   <si>
     <t>Agrément de radiophysicien associé au DEA de physique radiologique et médicale délivré par l'Université Paul Sabatier (jusqu'en 1995)</t>
+  </si>
+  <si>
+    <t>AM42</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de Psychothérapeute</t>
+  </si>
+  <si>
+    <t>Article 16 du Décret n° 2010-534 du 20 mai 2010 relatif à l'usage du titre de psychothérapeute</t>
   </si>
   <si>
     <t>AMGP</t>
@@ -843,7 +852,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1425,7 +1434,21 @@
       <c r="C44" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D45" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
